--- a/Formato/Formato.xlsx
+++ b/Formato/Formato.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,14 +28,6 @@
       <name val="Calibri"/>
       <b val="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,7 +76,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +445,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -462,7 +454,7 @@
     <col width="23.26953125" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="23.81640625" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="9.54296875" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="11.26953125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="11.54296875" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -518,12 +510,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.6304519</t>
+          <t>4.6304355</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-74.0742448</t>
+          <t>-74.0742071</t>
         </is>
       </c>
     </row>
@@ -548,12 +540,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.6341267</t>
+          <t>4.6345914</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-74.0651196</t>
+          <t>-74.064746</t>
         </is>
       </c>
     </row>
@@ -581,7 +573,7 @@
           <t>4.6284928</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>-74.0672394</t>
         </is>
@@ -636,7 +628,7 @@
           <t>Cl. 31</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>4.5886655</t>
         </is>
